--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ac.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66DC29-C582-4265-941D-BA82B3B038A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA6016B-A8B2-F748-9839-133335E2F695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -170,16 +170,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -203,9 +197,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,21 +504,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -539,7 +532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1200013</v>
       </c>
@@ -550,7 +543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1200054</v>
       </c>
@@ -561,7 +554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1200104</v>
       </c>
@@ -572,7 +565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1200138</v>
       </c>
@@ -583,7 +576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1200179</v>
       </c>
@@ -594,7 +587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1200203</v>
       </c>
@@ -605,7 +598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1200252</v>
       </c>
@@ -616,7 +609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1200302</v>
       </c>
@@ -627,7 +620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1200328</v>
       </c>
@@ -638,7 +631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1200336</v>
       </c>
@@ -649,7 +642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1200344</v>
       </c>
@@ -660,7 +653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1200351</v>
       </c>
@@ -671,7 +664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1200385</v>
       </c>
@@ -682,7 +675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1200393</v>
       </c>
@@ -693,7 +686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1200401</v>
       </c>
@@ -704,7 +697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1200427</v>
       </c>
@@ -715,7 +708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1200435</v>
       </c>
@@ -726,7 +719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1200450</v>
       </c>
@@ -737,7 +730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1200500</v>
       </c>
@@ -748,7 +741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1200609</v>
       </c>
@@ -759,7 +752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1200708</v>
       </c>
@@ -770,7 +763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1200807</v>
       </c>
@@ -780,9 +773,6 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
